--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>0.0008573483706666667</v>
+        <v>1.077865842892667</v>
       </c>
       <c r="R2">
-        <v>0.007716135336</v>
+        <v>9.700792586034002</v>
       </c>
       <c r="S2">
-        <v>1.120505450867166E-07</v>
+        <v>0.0008813171715956056</v>
       </c>
       <c r="T2">
-        <v>1.120505450867166E-07</v>
+        <v>0.0008813171715956055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>1.327950212870667</v>
+        <v>94.14948005867801</v>
       </c>
       <c r="R3">
-        <v>11.951551915836</v>
+        <v>847.345320528102</v>
       </c>
       <c r="S3">
-        <v>0.0001735555233918225</v>
+        <v>0.07698133679589439</v>
       </c>
       <c r="T3">
-        <v>0.0001735555233918225</v>
+        <v>0.07698133679589438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H4">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I4">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J4">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>0.2384478669126667</v>
+        <v>11.149091898076</v>
       </c>
       <c r="R4">
-        <v>2.146030802214</v>
+        <v>100.341827082684</v>
       </c>
       <c r="S4">
-        <v>3.116377703214542E-05</v>
+        <v>0.009116056698765135</v>
       </c>
       <c r="T4">
-        <v>3.116377703214541E-05</v>
+        <v>0.009116056698765133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H5">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I5">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J5">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>1.389832415296</v>
+        <v>51.010690004208</v>
       </c>
       <c r="R5">
-        <v>12.508491737664</v>
+        <v>459.096210037872</v>
       </c>
       <c r="S5">
-        <v>0.0001816431745149399</v>
+        <v>0.041708898497979</v>
       </c>
       <c r="T5">
-        <v>0.0001816431745149399</v>
+        <v>0.041708898497979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>0.0530137818591111</v>
+        <v>1.273650398992556</v>
       </c>
       <c r="R6">
-        <v>0.4771240367319999</v>
+        <v>11.462853590933</v>
       </c>
       <c r="S6">
-        <v>6.928599105871774E-06</v>
+        <v>0.001041400443889482</v>
       </c>
       <c r="T6">
-        <v>6.928599105871773E-06</v>
+        <v>0.001041400443889482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>82.11325210794244</v>
+        <v>111.2508793486443</v>
       </c>
       <c r="R7">
-        <v>739.019268971482</v>
+        <v>1001.257914137799</v>
       </c>
       <c r="S7">
-        <v>0.01073173399791201</v>
+        <v>0.09096429854567223</v>
       </c>
       <c r="T7">
-        <v>0.01073173399791201</v>
+        <v>0.09096429854567223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>14.74432521688811</v>
+        <v>13.17422333959533</v>
       </c>
       <c r="R8">
-        <v>132.698926951993</v>
+        <v>118.568010056358</v>
       </c>
       <c r="S8">
-        <v>0.001926999261926011</v>
+        <v>0.01077190573222122</v>
       </c>
       <c r="T8">
-        <v>0.00192699926192601</v>
+        <v>0.01077190573222122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>85.93971249741867</v>
+        <v>60.27631927029599</v>
       </c>
       <c r="R9">
-        <v>773.457412476768</v>
+        <v>542.4868734326639</v>
       </c>
       <c r="S9">
-        <v>0.01123183055966338</v>
+        <v>0.04928494168710832</v>
       </c>
       <c r="T9">
-        <v>0.01123183055966338</v>
+        <v>0.04928494168710833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H10">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>0.725630474772</v>
+        <v>2.300460114679556</v>
       </c>
       <c r="R10">
-        <v>6.530674272948001</v>
+        <v>20.704141032116</v>
       </c>
       <c r="S10">
-        <v>9.483576689661373E-05</v>
+        <v>0.001880971565252373</v>
       </c>
       <c r="T10">
-        <v>9.483576689661373E-05</v>
+        <v>0.001880971565252374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H11">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I11">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J11">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>1123.931853617022</v>
+        <v>200.9407062307053</v>
       </c>
       <c r="R11">
-        <v>10115.3866825532</v>
+        <v>1808.466356076348</v>
       </c>
       <c r="S11">
-        <v>0.1468914867595578</v>
+        <v>0.1642991992383819</v>
       </c>
       <c r="T11">
-        <v>0.1468914867595578</v>
+        <v>0.1642991992383819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H12">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I12">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J12">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>201.814157227203</v>
+        <v>23.79520734935734</v>
       </c>
       <c r="R12">
-        <v>1816.327415044827</v>
+        <v>214.156866144216</v>
       </c>
       <c r="S12">
-        <v>0.02637595999154983</v>
+        <v>0.01945615493518785</v>
       </c>
       <c r="T12">
-        <v>0.02637595999154983</v>
+        <v>0.01945615493518785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H13">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I13">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J13">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>1176.306843133728</v>
+        <v>108.870745418592</v>
       </c>
       <c r="R13">
-        <v>10586.76158820356</v>
+        <v>979.836708767328</v>
       </c>
       <c r="S13">
-        <v>0.1537365993474485</v>
+        <v>0.08901818167307239</v>
       </c>
       <c r="T13">
-        <v>0.1537365993474485</v>
+        <v>0.08901818167307241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H14">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I14">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J14">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>0.01946372860444445</v>
+        <v>0.3880999658671112</v>
       </c>
       <c r="R14">
-        <v>0.17517355744</v>
+        <v>3.492899692804</v>
       </c>
       <c r="S14">
-        <v>2.543798383674599E-06</v>
+        <v>0.0003173299965572927</v>
       </c>
       <c r="T14">
-        <v>2.543798383674599E-06</v>
+        <v>0.0003173299965572928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H15">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I15">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J15">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>30.14744464193778</v>
+        <v>33.89977541093467</v>
       </c>
       <c r="R15">
-        <v>271.32700177744</v>
+        <v>305.097978698412</v>
       </c>
       <c r="S15">
-        <v>0.003940099171675115</v>
+        <v>0.02771815655899421</v>
       </c>
       <c r="T15">
-        <v>0.003940099171675114</v>
+        <v>0.02771815655899421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H16">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I16">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J16">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>5.413300738284446</v>
+        <v>4.014379167522667</v>
       </c>
       <c r="R16">
-        <v>48.71970664456001</v>
+        <v>36.129412507704</v>
       </c>
       <c r="S16">
-        <v>0.000707487550214202</v>
+        <v>0.003282357741422282</v>
       </c>
       <c r="T16">
-        <v>0.0007074875502142019</v>
+        <v>0.003282357741422282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H17">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I17">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J17">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N17">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q17">
-        <v>31.55230926250667</v>
+        <v>18.367078964448</v>
       </c>
       <c r="R17">
-        <v>283.97078336256</v>
+        <v>165.303710680032</v>
       </c>
       <c r="S17">
-        <v>0.004123706969734358</v>
+        <v>0.0150178449295497</v>
       </c>
       <c r="T17">
-        <v>0.004123706969734358</v>
+        <v>0.0150178449295497</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H18">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I18">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J18">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N18">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q18">
-        <v>0.007016587172</v>
+        <v>2.083561670511445</v>
       </c>
       <c r="R18">
-        <v>0.06314928454799999</v>
+        <v>18.752055034603</v>
       </c>
       <c r="S18">
-        <v>9.170279482303226E-07</v>
+        <v>0.00170362451914437</v>
       </c>
       <c r="T18">
-        <v>9.170279482303225E-07</v>
+        <v>0.001703624519144371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H19">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I19">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J19">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N19">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q19">
-        <v>10.868019054422</v>
+        <v>181.9950499798676</v>
       </c>
       <c r="R19">
-        <v>97.812171489798</v>
+        <v>1637.955449818809</v>
       </c>
       <c r="S19">
-        <v>0.001420388141770051</v>
+        <v>0.148808280501964</v>
       </c>
       <c r="T19">
-        <v>0.001420388141770051</v>
+        <v>0.148808280501964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H20">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I20">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J20">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N20">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O20">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P20">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q20">
-        <v>1.951470722303</v>
+        <v>21.55168075230867</v>
       </c>
       <c r="R20">
-        <v>17.563236500727</v>
+        <v>193.965126770778</v>
       </c>
       <c r="S20">
-        <v>0.0002550460998541224</v>
+        <v>0.01762173506934993</v>
       </c>
       <c r="T20">
-        <v>0.0002550460998541223</v>
+        <v>0.01762173506934993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H21">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I21">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J21">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N21">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q21">
-        <v>11.374466471328</v>
+        <v>98.60588790333598</v>
       </c>
       <c r="R21">
-        <v>102.370198241952</v>
+        <v>887.4529911300239</v>
       </c>
       <c r="S21">
-        <v>0.001486577932365851</v>
+        <v>0.08062511935290553</v>
       </c>
       <c r="T21">
-        <v>0.001486577932365851</v>
+        <v>0.08062511935290556</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H22">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I22">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J22">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N22">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q22">
-        <v>1.412400699895111</v>
+        <v>1.252194380452222</v>
       </c>
       <c r="R22">
-        <v>12.711606299056</v>
+        <v>11.26974942407</v>
       </c>
       <c r="S22">
-        <v>0.0001845927206708813</v>
+        <v>0.001023856927042411</v>
       </c>
       <c r="T22">
-        <v>0.0001845927206708813</v>
+        <v>0.001023856927042411</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H23">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I23">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J23">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N23">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q23">
-        <v>2187.672916000228</v>
+        <v>109.3767379580233</v>
       </c>
       <c r="R23">
-        <v>19689.05624400205</v>
+        <v>984.3906416222101</v>
       </c>
       <c r="S23">
-        <v>0.2859163801975403</v>
+        <v>0.0894319065504684</v>
       </c>
       <c r="T23">
-        <v>0.2859163801975403</v>
+        <v>0.0894319065504684</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H24">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I24">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J24">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N24">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O24">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P24">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q24">
-        <v>392.8204049120271</v>
+        <v>12.95228929831334</v>
       </c>
       <c r="R24">
-        <v>3535.383644208244</v>
+        <v>116.57060368482</v>
       </c>
       <c r="S24">
-        <v>0.05133938781192424</v>
+        <v>0.01059044132936147</v>
       </c>
       <c r="T24">
-        <v>0.05133938781192423</v>
+        <v>0.01059044132936147</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H25">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I25">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J25">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N25">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q25">
-        <v>2289.618016739882</v>
+        <v>59.26089947783999</v>
       </c>
       <c r="R25">
-        <v>20606.56215065895</v>
+        <v>533.34809530056</v>
       </c>
       <c r="S25">
-        <v>0.299240023768375</v>
+        <v>0.04845468353822047</v>
       </c>
       <c r="T25">
-        <v>0.2992400237683749</v>
+        <v>0.04845468353822048</v>
       </c>
     </row>
   </sheetData>
